--- a/Zillow_Group_Temp/Median Price and Median Crime.xlsx
+++ b/Zillow_Group_Temp/Median Price and Median Crime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\Zillow_Group_Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Desktop\Project_Zillow\Zillow_Group_Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FC00240-7C52-4371-8784-3F6600E23E17}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{437FCC01-DFB9-4405-BF8D-0D2A0A017901}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>City</t>
   </si>
@@ -73,9 +73,6 @@
     <t>La Palma</t>
   </si>
   <si>
-    <t>Laguna Beach</t>
-  </si>
-  <si>
     <t>Laguna Hills</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Mission Viejo</t>
-  </si>
-  <si>
-    <t>Newport Beach</t>
   </si>
   <si>
     <t>Orange</t>
@@ -329,8 +323,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3340039255373111E-2"/>
-                  <c:y val="3.3138396473055443E-2"/>
+                  <c:x val="2.6934799149956265E-2"/>
+                  <c:y val="0.27437037446349122"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -338,7 +332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6795EAC2-9FF8-46AA-894F-DFAEAB544E65}" type="CELLRANGE">
+                    <a:fld id="{8B151009-FCFF-4A0E-BC6F-E1BD86B73FF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -367,8 +361,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712809498E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="-7.0566798583564988E-2"/>
+                  <c:y val="-4.9342893393016792E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -376,7 +370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB6C53F7-EBA9-4789-AC04-84D30A266765}" type="CELLRANGE">
+                    <a:fld id="{A2116B82-FE63-4CDC-8AF5-B3B9BB0FD1BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -405,8 +399,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="1.1695904637548981E-2"/>
+                  <c:x val="9.6795816317169995E-3"/>
+                  <c:y val="2.0833522200488643E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -414,7 +408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08E0EDCF-0D24-4000-A93D-F0C667E15626}" type="CELLRANGE">
+                    <a:fld id="{9ABF7A64-A565-4AAB-917D-BB58E813159D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -443,8 +437,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="9.6795816317170342E-3"/>
+                  <c:y val="1.827514570111733E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -452,7 +446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4F93162-B033-4C5C-9B0E-62C02FF7777E}" type="CELLRANGE">
+                    <a:fld id="{FC24CD17-3209-4387-A44A-574F951FAB10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -481,8 +475,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810211E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="1.161322934774789E-2"/>
+                  <c:y val="-6.7008093487549553E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -490,7 +484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{250B7404-58D2-40D7-BD17-D40ECD5408DC}" type="CELLRANGE">
+                    <a:fld id="{96A453F9-7FCD-4856-A2A4-DB253BAFDEE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -519,8 +513,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7250163564054624E-4"/>
-                  <c:y val="9.7465871979573408E-3"/>
+                  <c:x val="3.9645487768345956E-2"/>
+                  <c:y val="1.1574067078994246E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -528,7 +522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E50D3A6-6B40-47C0-B187-245C6A2FE86D}" type="CELLRANGE">
+                    <a:fld id="{200373B0-6EC2-45D0-B399-E8A664207398}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -557,8 +551,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.4327485380116969E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-6.0460215769201651E-2"/>
+                  <c:y val="3.1067747691899461E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -566,7 +560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13635FD1-DEE6-49A8-8222-D1337A3F6FBC}" type="CELLRANGE">
+                    <a:fld id="{B26A48BF-13F3-4C5A-A34A-74A4FA900637}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -595,8 +589,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9175049069216745E-3"/>
-                  <c:y val="-4.4834301110604567E-2"/>
+                  <c:x val="2.3186719951095426E-2"/>
+                  <c:y val="-4.4834256659887592E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -604,7 +598,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{438648F9-D817-4A8A-9C40-416BB20A3EC3}" type="CELLRANGE">
+                    <a:fld id="{4C89FC8C-6C1A-4340-8180-90B72564B25A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -633,8 +627,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7250163564054624E-4"/>
-                  <c:y val="0"/>
+                  <c:x val="1.2574419743913412E-2"/>
+                  <c:y val="1.6447631131005599E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -642,7 +636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2BCA6D4-C921-42E8-B8E1-3DE0EBA35DB7}" type="CELLRANGE">
+                    <a:fld id="{AE1C5FDF-0495-49A7-9F70-744F7205E334}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -671,8 +665,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7250163564054624E-4"/>
-                  <c:y val="0"/>
+                  <c:x val="6.773476595820809E-3"/>
+                  <c:y val="1.6447631131005599E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -680,7 +674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14958E2B-667C-4712-B7F5-8A075F982DA8}" type="CELLRANGE">
+                    <a:fld id="{72C79EFA-3780-4D47-AF59-B632970F686E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -709,8 +703,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810211E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="2.3215115643933238E-2"/>
+                  <c:y val="1.8275145701117331E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -718,7 +712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6270757-4AF1-4CD3-B3D4-7E455DE247CD}" type="CELLRANGE">
+                    <a:fld id="{B3B18C6D-FE96-4D81-8EE0-2CD81E52F6DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -747,8 +741,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9175049069215674E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="1.2585762795475955E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -756,7 +750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{166C41E7-A68B-4DA9-A5F9-AAE5FBDAF41A}" type="CELLRANGE">
+                    <a:fld id="{CD82D9ED-8DCD-43E3-A31F-D204972C3CE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -785,8 +779,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.7250163564054624E-4"/>
-                  <c:y val="1.5594539516731974E-2"/>
+                  <c:x val="7.728881274410875E-3"/>
+                  <c:y val="3.2042230264245519E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -794,7 +788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAB5DFE2-92CC-45C9-88C8-5897A5B06465}" type="CELLRANGE">
+                    <a:fld id="{300E53DD-E4D9-4CB9-B35F-1400BB8C4586}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -823,8 +817,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.376257360382458E-2"/>
-                  <c:y val="-2.3391809275097961E-2"/>
+                  <c:x val="1.231322504652364E-2"/>
+                  <c:y val="-1.4254181950516373E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -832,7 +826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7F69EB4-730D-403A-A2DF-90B3F7593DE9}" type="CELLRANGE">
+                    <a:fld id="{B3A6F335-5C5F-4509-9916-9AD658D4E195}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -870,7 +864,37 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36F81C2E-26FA-4AD5-BC13-E6B71F593A3F}" type="CELLRANGE">
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-F9AF-4103-A929-4B8BD112180C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5508855763964004E-2"/>
+                  <c:y val="0.16155156850395197"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7A09B91D-AE2D-4B17-B55A-0DF73AB0823F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -891,16 +915,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000011-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1670019627686537E-2"/>
-                  <c:y val="4.0935666231421433E-2"/>
+                  <c:x val="-7.5984209558690591E-2"/>
+                  <c:y val="-4.3616297343239969E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -908,7 +932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE86CE00-8ECF-42C4-9E1B-75DDDEE3881B}" type="CELLRANGE">
+                    <a:fld id="{839A9849-B120-44B2-8392-D761AA01F3E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -929,16 +953,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000007-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1150097465886963E-2"/>
-                  <c:y val="-2.5341126714689459E-2"/>
+                  <c:x val="-2.918643294905256E-2"/>
+                  <c:y val="0.13365175256488779"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -946,7 +970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C02ED4D8-B187-4363-AE02-05FB37591FEC}" type="CELLRANGE">
+                    <a:fld id="{23074417-162B-4EF5-9F76-B0297AC5F7CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -967,16 +991,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000000C-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.112005234049749E-2"/>
-                  <c:y val="3.3138396473055304E-2"/>
+                  <c:x val="4.2568645445517347E-2"/>
+                  <c:y val="3.6185364083352441E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -984,7 +1008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5CE974A-4BBB-4A50-B60F-71D1E8B0E00D}" type="CELLRANGE">
+                    <a:fld id="{6A200BF7-4D28-41BE-950B-8A816639EF48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1005,16 +1029,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000016-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.862508178202731E-3"/>
-                  <c:y val="-3.5087713912646944E-2"/>
+                  <c:x val="3.0954045796238429E-2"/>
+                  <c:y val="-5.8479027255725312E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1022,7 +1046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{679E170F-22E4-4793-9CF8-8772DA3EF26C}" type="CELLRANGE">
+                    <a:fld id="{99B002F0-11DC-447F-8BBD-4B8373981B6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1043,16 +1067,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000005-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9493177387914229E-3"/>
-                  <c:y val="-5.8479523187744903E-3"/>
+                  <c:x val="3.9821495387222433E-2"/>
+                  <c:y val="2.6681424926061206E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1060,7 +1084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{548B529E-65EA-4244-8748-CAF0C03CA3A2}" type="CELLRANGE">
+                    <a:fld id="{2FBC57C2-1BAC-48A7-B4D5-2E097A7106D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1081,16 +1105,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000015-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1120052340497445E-2"/>
-                  <c:y val="1.7543856956323472E-2"/>
+                  <c:x val="3.8986354775828458E-3"/>
+                  <c:y val="-3.5737073554787506E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1098,7 +1122,37 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04858647-3662-488D-9AA6-A827A8E31E33}" type="CELLRANGE">
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-F9AF-4103-A929-4B8BD112180C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4519410511506846E-2"/>
+                  <c:y val="1.827514570111733E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2530ACCA-820F-4F07-A544-3B625B1EB45A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1119,16 +1173,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000001A-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="23"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.8986354775828458E-3"/>
-                  <c:y val="-3.5737073554787506E-17"/>
+                  <c:x val="1.2602739308888423E-2"/>
+                  <c:y val="2.8265318853086391E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1136,7 +1190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DDE93B9-92E6-4E63-9FD5-A7314D2F84C1}" type="CELLRANGE">
+                    <a:fld id="{76C9DBD1-C279-47AE-95F2-30BF52657C92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1157,16 +1211,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000012-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9175049069216389E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="4.0419251366209656E-2"/>
+                  <c:y val="0.25499756883002661"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1174,7 +1228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6454DC2F-1E69-4478-885B-54257F498DF6}" type="CELLRANGE">
+                    <a:fld id="{8C0E6E77-560B-4CC7-A41D-2763302DEC9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1195,16 +1249,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000000D-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="25"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8350098138432597E-3"/>
-                  <c:y val="1.3645222077140477E-2"/>
+                  <c:x val="1.2553027814456604E-2"/>
+                  <c:y val="-1.9614987288700824E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1212,7 +1266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00EBFE85-AD46-4152-BD1C-4F5FBDA1F6D1}" type="CELLRANGE">
+                    <a:fld id="{2EFFDB9C-311A-490B-B1B5-DBD9927D8FE6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1233,16 +1287,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000006-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2092553976138027E-2"/>
-                  <c:y val="0.10331382429834933"/>
+                  <c:x val="-6.6107380634365873E-2"/>
+                  <c:y val="-6.0307549117332111E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1250,7 +1304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9244E682-4A60-4E5B-83AF-FA63B71209F5}" type="CELLRANGE">
+                    <a:fld id="{6FDFC1DD-F032-453C-94C2-736E59C7B852}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1271,16 +1325,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000000B-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="27"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9493177387914409E-3"/>
-                  <c:y val="-2.1442491835506464E-2"/>
+                  <c:x val="8.712757773701554E-3"/>
+                  <c:y val="1.827514570111733E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1288,7 +1342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A775F68-BA79-43D5-972D-6929A71138C6}" type="CELLRANGE">
+                    <a:fld id="{E1614A3F-A34E-4399-A6B6-F605BCA60905}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1309,16 +1363,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000020-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2240104680994966E-2"/>
-                  <c:y val="-2.9239761593872451E-2"/>
+                  <c:x val="3.8720001339850388E-2"/>
+                  <c:y val="-3.4722345135767767E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1326,7 +1380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6936BAC4-3566-442A-B0B0-AD7E0CE8E579}" type="CELLRANGE">
+                    <a:fld id="{FF1361CF-7FA8-4083-9C76-E8CFF6B5EC1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1347,16 +1401,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000003-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="2.8083340216560931E-2"/>
+                  <c:y val="2.9483853764874279E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1364,7 +1418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B751A415-62FB-4C8F-A81C-4EAAA95C0D4C}" type="CELLRANGE">
+                    <a:fld id="{CEF1C65D-968C-4BE4-9424-9E76F1EFFB56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1385,16 +1439,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000010-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="30"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8479532163742513E-3"/>
-                  <c:y val="-2.9239761593872524E-2"/>
+                  <c:x val="1.0697517992046008E-2"/>
+                  <c:y val="-2.5341126714689459E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1402,7 +1456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55B5B232-27DD-43E5-9DAF-240CD0291387}" type="CELLRANGE">
+                    <a:fld id="{53881394-484C-462A-A686-270BDA8A9AC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1423,16 +1477,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000000A-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="31"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.7800130851243699E-3"/>
-                  <c:y val="3.8986348791829935E-3"/>
+                  <c:x val="5.5893838172718134E-3"/>
+                  <c:y val="-2.8021266513644699E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1440,7 +1494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAD23804-BC83-4032-9A07-86D8CCD77FED}" type="CELLRANGE">
+                    <a:fld id="{87677F07-2B14-405C-B41B-E0B709FF481A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1461,16 +1515,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000002-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="30"/>
+              <c:idx val="32"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0697517992046008E-2"/>
-                  <c:y val="-2.5341126714689459E-2"/>
+                  <c:x val="9.6795816317169284E-3"/>
+                  <c:y val="1.4620116560893865E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1478,7 +1532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF76115C-3956-4495-9D15-D809466B9C3C}" type="CELLRANGE">
+                    <a:fld id="{391C5B7D-7444-4F98-8495-FF1309DBFAD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1499,16 +1553,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000019-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="33"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6315789473684219E-2"/>
-                  <c:y val="-3.8986348791830008E-2"/>
+                  <c:x val="5.6598782182578217E-3"/>
+                  <c:y val="-5.45813847639103E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1516,83 +1570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96A5304B-0C9C-4681-BF54-1098350B2557}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F9AF-4103-A929-4B8BD112180C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E1B4ADA7-AAD1-4DE3-9A9E-1D66AAE6C648}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-F9AF-4103-A929-4B8BD112180C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.7543859649122823E-2"/>
-                  <c:y val="-2.5341126714689459E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{35D40371-277D-45FC-BE65-523AFBF1CD7D}" type="CELLRANGE">
+                    <a:fld id="{A1FEA36C-8849-4348-A6A5-4211DFD93281}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1688,6 +1666,81 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5664299292081059E-2"/>
+                  <c:y val="-0.68160048257896555"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:t>R² = 0.1174</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$35</c:f>
@@ -1736,9 +1789,6 @@
                 <c:pt idx="13">
                   <c:v>797.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1358.5</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>1337.5</c:v>
                 </c:pt>
@@ -1756,9 +1806,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2641.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4869.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5890.5</c:v>
@@ -1847,9 +1894,6 @@
                 <c:pt idx="13">
                   <c:v>514650</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1821900</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>491250</c:v>
                 </c:pt>
@@ -1867,9 +1911,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>552050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1673790</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>486930</c:v>
@@ -1959,9 +2000,6 @@
                   <c:pt idx="13">
                     <c:v>La Palma</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Laguna Beach</c:v>
-                  </c:pt>
                   <c:pt idx="15">
                     <c:v>Laguna Hills</c:v>
                   </c:pt>
@@ -1979,9 +2017,6 @@
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Mission Viejo</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Newport Beach</c:v>
                   </c:pt>
                   <c:pt idx="22">
                     <c:v>Orange</c:v>
@@ -2135,9 +2170,6 @@
                       <c:pt idx="13">
                         <c:v>La Palma</c:v>
                       </c:pt>
-                      <c:pt idx="14">
-                        <c:v>Laguna Beach</c:v>
-                      </c:pt>
                       <c:pt idx="15">
                         <c:v>Laguna Hills</c:v>
                       </c:pt>
@@ -2155,9 +2187,6 @@
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>Mission Viejo</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>Newport Beach</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>Orange</c:v>
@@ -2252,9 +2281,6 @@
                       <c:pt idx="13">
                         <c:v>514650</c:v>
                       </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1821900</c:v>
-                      </c:pt>
                       <c:pt idx="15">
                         <c:v>491250</c:v>
                       </c:pt>
@@ -2272,9 +2298,6 @@
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>552050</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1673790</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>486930</c:v>
@@ -2459,7 +2482,7 @@
         <c:axId val="491936336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1900000"/>
+          <c:max val="875000"/>
           <c:min val="275000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2578,7 +2601,7 @@
         <c:crossAx val="491940272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
+        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3194,14 +3217,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>538369</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3552,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,19 +3752,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1821900</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1358.5</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>491250</v>
@@ -3752,7 +3768,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>629850</v>
@@ -3763,7 +3779,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>447750</v>
@@ -3774,7 +3790,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>544175</v>
@@ -3785,7 +3801,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>742400</v>
@@ -3796,7 +3812,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>552050</v>
@@ -3806,19 +3822,12 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1673790</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4869.5</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>486930</v>
@@ -3829,7 +3838,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>501300</v>
@@ -3840,7 +3849,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>509850</v>
@@ -3851,7 +3860,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>689616.66666666663</v>
@@ -3862,7 +3871,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>548750</v>
@@ -3873,7 +3882,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>380180</v>
@@ -3884,7 +3893,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>792550</v>
@@ -3895,7 +3904,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>367250</v>
@@ -3906,7 +3915,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>554450</v>
@@ -3917,7 +3926,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>843950</v>
@@ -3928,7 +3937,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>430750</v>
@@ -3939,7 +3948,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>591300</v>

--- a/Zillow_Group_Temp/Median Price and Median Crime.xlsx
+++ b/Zillow_Group_Temp/Median Price and Median Crime.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\Zillow_Group_Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\homework\Zillow_Group_Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FC00240-7C52-4371-8784-3F6600E23E17}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC1ABB31-265C-40F2-B21B-0EEF2904589A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>City</t>
   </si>
@@ -73,9 +74,6 @@
     <t>La Palma</t>
   </si>
   <si>
-    <t>Laguna Beach</t>
-  </si>
-  <si>
     <t>Laguna Hills</t>
   </si>
   <si>
@@ -94,9 +92,6 @@
     <t>Mission Viejo</t>
   </si>
   <si>
-    <t>Newport Beach</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
@@ -131,6 +126,81 @@
   </si>
   <si>
     <t>Yorba Linda</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
@@ -140,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +226,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,17 +266,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,7 +357,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Overall Crime vs.</a:t>
+              <a:t>Crime vs.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
@@ -292,7 +398,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7146146277124308E-2"/>
+          <c:y val="8.5877397432436775E-2"/>
+          <c:w val="0.90016739781864152"/>
+          <c:h val="0.8093773926366965"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -329,8 +445,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3340039255373111E-2"/>
-                  <c:y val="3.3138396473055443E-2"/>
+                  <c:x val="-4.1664689023789656E-2"/>
+                  <c:y val="6.020770275057781E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -338,7 +454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6795EAC2-9FF8-46AA-894F-DFAEAB544E65}" type="CELLRANGE">
+                    <a:fld id="{285AACFD-1CCF-440F-AD09-0B9965235DE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -367,8 +483,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712809498E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="-8.1962735056936895E-2"/>
+                  <c:y val="-3.4803372364569436E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -376,7 +492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB6C53F7-EBA9-4789-AC04-84D30A266765}" type="CELLRANGE">
+                    <a:fld id="{6470D3E3-F431-41A0-94A1-6077B4559441}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -405,8 +521,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="1.1695904637548981E-2"/>
+                  <c:x val="2.3163064673364656E-2"/>
+                  <c:y val="2.716413870255267E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -414,7 +530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08E0EDCF-0D24-4000-A93D-F0C667E15626}" type="CELLRANGE">
+                    <a:fld id="{579A5068-C2BE-497D-B37F-D01D0993FD58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -443,8 +559,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="1.1589582134248868E-2"/>
+                  <c:y val="-5.9939141294536251E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -452,7 +568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4F93162-B033-4C5C-9B0E-62C02FF7777E}" type="CELLRANGE">
+                    <a:fld id="{D9A676E8-E58C-4E78-889F-BE6323C83C2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -481,8 +597,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810211E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="1.0625125255989258E-2"/>
+                  <c:y val="-1.5468165495364264E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -490,7 +606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{250B7404-58D2-40D7-BD17-D40ECD5408DC}" type="CELLRANGE">
+                    <a:fld id="{C8398147-FE4E-4832-AF8F-02CAEE923A86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -519,8 +635,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7250163564054624E-4"/>
-                  <c:y val="9.7465871979573408E-3"/>
+                  <c:x val="8.0497975665412094E-6"/>
+                  <c:y val="3.4882387895003288E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -528,7 +644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E50D3A6-6B40-47C0-B187-245C6A2FE86D}" type="CELLRANGE">
+                    <a:fld id="{F71B15CA-F8EB-403A-9420-C1BA18C196E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -557,8 +673,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.4327485380116969E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="6.0779009287112032E-3"/>
+                  <c:y val="3.4803372364569436E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -566,7 +682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13635FD1-DEE6-49A8-8222-D1337A3F6FBC}" type="CELLRANGE">
+                    <a:fld id="{5CF7A5B9-799E-44DD-88D1-979326AF5DCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -595,8 +711,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9175049069216745E-3"/>
-                  <c:y val="-4.4834301110604567E-2"/>
+                  <c:x val="2.6980643198570322E-2"/>
+                  <c:y val="-2.1631985852109417E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -604,7 +720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{438648F9-D817-4A8A-9C40-416BB20A3EC3}" type="CELLRANGE">
+                    <a:fld id="{36200E30-EA07-4D46-A37A-6BEB91B38074}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -633,8 +749,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7250163564054624E-4"/>
-                  <c:y val="0"/>
+                  <c:x val="6.7592479453840275E-3"/>
+                  <c:y val="2.5135768929966815E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -642,7 +758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2BCA6D4-C921-42E8-B8E1-3DE0EBA35DB7}" type="CELLRANGE">
+                    <a:fld id="{40C5255E-1ECF-42B7-810D-6850EA47118D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -671,8 +787,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7250163564054624E-4"/>
-                  <c:y val="0"/>
+                  <c:x val="5.7947910671243812E-3"/>
+                  <c:y val="1.9335206869205243E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -680,7 +796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14958E2B-667C-4712-B7F5-8A075F982DA8}" type="CELLRANGE">
+                    <a:fld id="{955E7351-CEB1-44B2-94B1-FF06768B7286}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -709,8 +825,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810211E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="7.7317546212103206E-3"/>
+                  <c:y val="-1.7401686182284718E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -718,7 +834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6270757-4AF1-4CD3-B3D4-7E455DE247CD}" type="CELLRANGE">
+                    <a:fld id="{E0B81D67-83D2-4C1C-8A17-2363EB99942A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -747,8 +863,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9175049069215674E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
+                  <c:x val="2.3171114470931231E-2"/>
+                  <c:y val="-1.5468165495364193E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -756,7 +872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{166C41E7-A68B-4DA9-A5F9-AAE5FBDAF41A}" type="CELLRANGE">
+                    <a:fld id="{BD0F9032-7193-4F23-96A2-88E4E658B840}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -785,8 +901,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.7250163564054624E-4"/>
-                  <c:y val="1.5594539516731974E-2"/>
+                  <c:x val="8.6720621067702015E-3"/>
+                  <c:y val="-3.4677008414164393E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -794,7 +910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAB5DFE2-92CC-45C9-88C8-5897A5B06465}" type="CELLRANGE">
+                    <a:fld id="{72E4BC91-CBC9-4CA4-A7B0-0C2A41CB3CCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -823,8 +939,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.376257360382458E-2"/>
-                  <c:y val="-2.3391809275097961E-2"/>
+                  <c:x val="-4.3762572587720601E-2"/>
+                  <c:y val="-4.6594042411700141E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -832,7 +948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7F69EB4-730D-403A-A2DF-90B3F7593DE9}" type="CELLRANGE">
+                    <a:fld id="{769CF025-CB30-4C80-A6A9-6B73477CF650}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -861,8 +977,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9239766081871166E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="3.1857681401618564E-2"/>
+                  <c:y val="4.4470975799172058E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -870,7 +986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36F81C2E-26FA-4AD5-BC13-E6B71F593A3F}" type="CELLRANGE">
+                    <a:fld id="{760FF0AD-6CDF-43D0-BA2D-D4BC5B499321}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -899,8 +1015,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1670019627686537E-2"/>
-                  <c:y val="4.0935666231421433E-2"/>
+                  <c:x val="5.892839120315084E-2"/>
+                  <c:y val="-2.2870504811802209E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -908,7 +1024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE86CE00-8ECF-42C4-9E1B-75DDDEE3881B}" type="CELLRANGE">
+                    <a:fld id="{BC8C2EDF-5233-46F1-8595-D197E37DB6D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -937,8 +1053,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1150097465886963E-2"/>
-                  <c:y val="-2.5341126714689459E-2"/>
+                  <c:x val="-2.8714007627411019E-2"/>
+                  <c:y val="7.3268406622140889E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -946,7 +1062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C02ED4D8-B187-4363-AE02-05FB37591FEC}" type="CELLRANGE">
+                    <a:fld id="{A983D32F-2DAB-4435-9DBA-0267AEAB9E3C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -975,8 +1091,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.112005234049749E-2"/>
-                  <c:y val="3.3138396473055304E-2"/>
+                  <c:x val="4.1214204126007278E-2"/>
+                  <c:y val="3.5071933820610926E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -984,7 +1100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5CE974A-4BBB-4A50-B60F-71D1E8B0E00D}" type="CELLRANGE">
+                    <a:fld id="{DFC1D04E-7FBA-4483-9163-DD419B2B46C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1013,8 +1129,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.862508178202731E-3"/>
-                  <c:y val="-3.5087713912646944E-2"/>
+                  <c:x val="1.7400472796506493E-2"/>
+                  <c:y val="1.3250249797170635E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1022,7 +1138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{679E170F-22E4-4793-9CF8-8772DA3EF26C}" type="CELLRANGE">
+                    <a:fld id="{CE07DA00-1B90-4611-B813-4E08C7208934}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1051,8 +1167,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9493177387914229E-3"/>
-                  <c:y val="-5.8479523187744903E-3"/>
+                  <c:x val="5.7887840955441069E-2"/>
+                  <c:y val="1.5420817075393148E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1060,7 +1176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{548B529E-65EA-4244-8748-CAF0C03CA3A2}" type="CELLRANGE">
+                    <a:fld id="{6C3881A5-52BA-43C5-B4FF-67A26D854DE6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1089,8 +1205,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1120052340497445E-2"/>
-                  <c:y val="1.7543856956323472E-2"/>
+                  <c:x val="1.9546579204350413E-2"/>
+                  <c:y val="2.3344445748682809E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1098,7 +1214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04858647-3662-488D-9AA6-A827A8E31E33}" type="CELLRANGE">
+                    <a:fld id="{FEFAB5B7-4570-4D05-890A-ABF03855DE04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1127,8 +1243,8 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.8986354775828458E-3"/>
-                  <c:y val="-3.5737073554787506E-17"/>
+                  <c:x val="2.8010030047767955E-2"/>
+                  <c:y val="2.9002810303807865E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1136,7 +1252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DDE93B9-92E6-4E63-9FD5-A7314D2F84C1}" type="CELLRANGE">
+                    <a:fld id="{4D8C5E89-9A4C-46C7-A041-5B7DA0211029}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1165,8 +1281,8 @@
               <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9175049069216389E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="3.281568325352769E-2"/>
+                  <c:y val="0.17981742388360875"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1174,7 +1290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6454DC2F-1E69-4478-885B-54257F498DF6}" type="CELLRANGE">
+                    <a:fld id="{3E042572-1635-44E1-85E6-434E0D7E4AC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1203,8 +1319,8 @@
               <c:idx val="23"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8350098138432597E-3"/>
-                  <c:y val="1.3645222077140477E-2"/>
+                  <c:x val="1.4515151959294148E-2"/>
+                  <c:y val="-2.6958759221713771E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1212,7 +1328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00EBFE85-AD46-4152-BD1C-4F5FBDA1F6D1}" type="CELLRANGE">
+                    <a:fld id="{F5904F40-838C-4A56-A66D-8985C8DB1927}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1241,8 +1357,98 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2092553976138027E-2"/>
-                  <c:y val="0.10331382429834933"/>
+                  <c:x val="-5.9097361010562476E-2"/>
+                  <c:y val="-0.16254522268905836"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{DC586135-EF6C-4BC8-BDE6-ED4324E4A4E2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.9628395524221425E-2"/>
+                      <c:h val="3.6060160811067769E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-F9AF-4103-A929-4B8BD112180C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4283607885855085E-2"/>
+                  <c:y val="-2.5309481300342902E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1250,7 +1456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9244E682-4A60-4E5B-83AF-FA63B71209F5}" type="CELLRANGE">
+                    <a:fld id="{C09C8E9C-9DCA-49D5-AE41-7D05362F88B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1271,16 +1477,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000006-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9493177387914409E-3"/>
-                  <c:y val="-2.1442491835506464E-2"/>
+                  <c:x val="3.3429442347235562E-3"/>
+                  <c:y val="-2.9239704649386508E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1288,7 +1494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A775F68-BA79-43D5-972D-6929A71138C6}" type="CELLRANGE">
+                    <a:fld id="{DC686517-D19C-49BA-9D5C-5F30A92CDF00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1309,16 +1515,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000000B-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="27"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2240104680994966E-2"/>
-                  <c:y val="-2.9239761593872451E-2"/>
+                  <c:x val="1.9305237160326071E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1326,7 +1532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6936BAC4-3566-442A-B0B0-AD7E0CE8E579}" type="CELLRANGE">
+                    <a:fld id="{17678D1C-A99C-43BE-A4EF-F6A9247CB6C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1347,16 +1553,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000020-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="5.8479532163742513E-3"/>
+                  <c:y val="-2.9239761593872524E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1364,7 +1570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B751A415-62FB-4C8F-A81C-4EAAA95C0D4C}" type="CELLRANGE">
+                    <a:fld id="{94AFA858-86C2-4D63-992B-BAD9FD5BD1C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1385,16 +1591,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000003-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8479532163742513E-3"/>
-                  <c:y val="-2.9239761593872524E-2"/>
+                  <c:x val="1.3566718734681179E-2"/>
+                  <c:y val="1.3566311918906603E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1402,7 +1608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55B5B232-27DD-43E5-9DAF-240CD0291387}" type="CELLRANGE">
+                    <a:fld id="{9C28B495-DEB5-4D94-A592-4E6D9D59A46E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1423,16 +1629,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000010-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="30"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.7800130851243699E-3"/>
-                  <c:y val="3.8986348791829935E-3"/>
+                  <c:x val="9.7330406143423236E-3"/>
+                  <c:y val="4.4265596318332878E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1440,7 +1646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAD23804-BC83-4032-9A07-86D8CCD77FED}" type="CELLRANGE">
+                    <a:fld id="{FD0EA1EB-3C89-4C78-B810-7D192E83D706}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1461,16 +1667,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{0000000A-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="30"/>
+              <c:idx val="31"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0697517992046008E-2"/>
-                  <c:y val="-2.5341126714689459E-2"/>
+                  <c:x val="1.322695652418243E-2"/>
+                  <c:y val="-3.1252240866740992E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1478,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF76115C-3956-4495-9D15-D809466B9C3C}" type="CELLRANGE">
+                    <a:fld id="{E1172853-8A02-4BE8-BA98-7194668D6C8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1499,32 +1705,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-F9AF-4103-A929-4B8BD112180C}"/>
+                  <c16:uniqueId val="{00000002-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="32"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6315789473684219E-2"/>
-                  <c:y val="-3.8986348791830008E-2"/>
+                  <c:x val="1.9450032712810925E-3"/>
+                  <c:y val="-1.4294829421915002E-16"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{96A5304B-0C9C-4681-BF54-1098350B2557}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1537,44 +1729,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F9AF-4103-A929-4B8BD112180C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.9450032712810925E-3"/>
-                  <c:y val="-1.4294829421915002E-16"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E1B4ADA7-AAD1-4DE3-9A9E-1D66AAE6C648}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-F9AF-4103-A929-4B8BD112180C}"/>
                 </c:ext>
               </c:extLst>
@@ -1587,20 +1741,6 @@
                   <c:y val="-2.5341126714689459E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{35D40371-277D-45FC-BE65-523AFBF1CD7D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1631,7 +1771,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1659,7 +1799,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1690,10 +1830,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$35</c:f>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>903</c:v>
                 </c:pt>
@@ -1737,63 +1877,57 @@
                   <c:v>797.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1358.5</c:v>
+                  <c:v>1337.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1337.5</c:v>
+                  <c:v>1621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1621</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>466</c:v>
+                  <c:v>2264.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2264.5</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>836</c:v>
+                  <c:v>2641.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2641.5</c:v>
+                  <c:v>5890.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4869.5</c:v>
+                  <c:v>2031.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5890.5</c:v>
+                  <c:v>1017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2031.5</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1017</c:v>
+                  <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2093</c:v>
+                  <c:v>17098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1394</c:v>
+                  <c:v>1497.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17098</c:v>
+                  <c:v>2011.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1497.5</c:v>
+                  <c:v>3734.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2011.5</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3734.5</c:v>
+                  <c:v>6008.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6008.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>2062.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1801,10 +1935,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>500150</c:v>
                 </c:pt>
@@ -1848,63 +1982,57 @@
                   <c:v>514650</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1821900</c:v>
+                  <c:v>491250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>491250</c:v>
+                  <c:v>629850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>629850</c:v>
+                  <c:v>447750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>447750</c:v>
+                  <c:v>544175</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>544175</c:v>
+                  <c:v>742400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>742400</c:v>
+                  <c:v>552050</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>552050</c:v>
+                  <c:v>486930</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1673790</c:v>
+                  <c:v>501300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>486930</c:v>
+                  <c:v>509850</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>501300</c:v>
+                  <c:v>689616.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>509850</c:v>
+                  <c:v>548750</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>689616.66666666663</c:v>
+                  <c:v>380180</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>548750</c:v>
+                  <c:v>792550</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>380180</c:v>
+                  <c:v>367250</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>792550</c:v>
+                  <c:v>554450</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>367250</c:v>
+                  <c:v>843950</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>554450</c:v>
+                  <c:v>430750</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>843950</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>430750</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>591300</c:v>
                 </c:pt>
               </c:numCache>
@@ -1914,9 +2042,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$A$2:$A$35</c15:f>
+                <c15:f>Sheet1!$A$2:$A$33</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="34"/>
+                  <c:ptCount val="32"/>
                   <c:pt idx="0">
                     <c:v>Aliso Viejo</c:v>
                   </c:pt>
@@ -1960,63 +2088,57 @@
                     <c:v>La Palma</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Laguna Beach</c:v>
+                    <c:v>Laguna Hills</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Laguna Hills</c:v>
+                    <c:v>Laguna Niguel</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Laguna Niguel</c:v>
+                    <c:v>Laguna Woods</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Laguna Woods</c:v>
+                    <c:v>Lake Forest</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Lake Forest</c:v>
+                    <c:v>Los Alamitos</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Los Alamitos</c:v>
+                    <c:v>Mission Viejo</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Mission Viejo</c:v>
+                    <c:v>Orange</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Newport Beach</c:v>
+                    <c:v>Placentia</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Orange</c:v>
+                    <c:v>Rancho Santa Margarita</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Placentia</c:v>
+                    <c:v>San Clemente</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Rancho Santa Margarita</c:v>
+                    <c:v>San Juan Capistrano</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>San Clemente</c:v>
+                    <c:v>Santa Ana</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>San Juan Capistrano</c:v>
+                    <c:v>Seal Beach</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Santa Ana</c:v>
+                    <c:v>Stanton</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Seal Beach</c:v>
+                    <c:v>Tustin</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>Stanton</c:v>
+                    <c:v>Villa Park</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Tustin</c:v>
+                    <c:v>Westminster</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Villa Park</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Westminster</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
                     <c:v>Yorba Linda</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2087,12 +2209,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$33</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="34"/>
+                      <c:ptCount val="32"/>
                       <c:pt idx="0">
                         <c:v>Aliso Viejo</c:v>
                       </c:pt>
@@ -2136,63 +2258,57 @@
                         <c:v>La Palma</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>Laguna Beach</c:v>
+                        <c:v>Laguna Hills</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>Laguna Hills</c:v>
+                        <c:v>Laguna Niguel</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>Laguna Niguel</c:v>
+                        <c:v>Laguna Woods</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>Laguna Woods</c:v>
+                        <c:v>Lake Forest</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>Lake Forest</c:v>
+                        <c:v>Los Alamitos</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>Los Alamitos</c:v>
+                        <c:v>Mission Viejo</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>Mission Viejo</c:v>
+                        <c:v>Orange</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>Newport Beach</c:v>
+                        <c:v>Placentia</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>Orange</c:v>
+                        <c:v>Rancho Santa Margarita</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>Placentia</c:v>
+                        <c:v>San Clemente</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>Rancho Santa Margarita</c:v>
+                        <c:v>San Juan Capistrano</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>San Clemente</c:v>
+                        <c:v>Santa Ana</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>San Juan Capistrano</c:v>
+                        <c:v>Seal Beach</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>Santa Ana</c:v>
+                        <c:v>Stanton</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>Seal Beach</c:v>
+                        <c:v>Tustin</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>Stanton</c:v>
+                        <c:v>Villa Park</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>Tustin</c:v>
+                        <c:v>Westminster</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>Villa Park</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Westminster</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
                         <c:v>Yorba Linda</c:v>
                       </c:pt>
                     </c:strCache>
@@ -2203,13 +2319,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$B$35</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$B$33</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0</c:formatCode>
-                      <c:ptCount val="34"/>
+                      <c:ptCount val="32"/>
                       <c:pt idx="0">
                         <c:v>500150</c:v>
                       </c:pt>
@@ -2253,63 +2369,57 @@
                         <c:v>514650</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1821900</c:v>
+                        <c:v>491250</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>491250</c:v>
+                        <c:v>629850</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>629850</c:v>
+                        <c:v>447750</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>447750</c:v>
+                        <c:v>544175</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>544175</c:v>
+                        <c:v>742400</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>742400</c:v>
+                        <c:v>552050</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>552050</c:v>
+                        <c:v>486930</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>1673790</c:v>
+                        <c:v>501300</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>486930</c:v>
+                        <c:v>509850</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>501300</c:v>
+                        <c:v>689616.66666666663</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>509850</c:v>
+                        <c:v>548750</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>689616.66666666663</c:v>
+                        <c:v>380180</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>548750</c:v>
+                        <c:v>792550</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>380180</c:v>
+                        <c:v>367250</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>792550</c:v>
+                        <c:v>554450</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>367250</c:v>
+                        <c:v>843950</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>554450</c:v>
+                        <c:v>430750</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>843950</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>430750</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
                         <c:v>591300</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2370,7 +2480,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t>Overall Crime</a:t>
+                  <a:t>Crime</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
@@ -2459,8 +2569,8 @@
         <c:axId val="491936336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1900000"/>
-          <c:min val="275000"/>
+          <c:max val="875000"/>
+          <c:min val="350000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2578,7 +2688,7 @@
         <c:crossAx val="491940272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
+        <c:majorUnit val="25000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3200,7 +3310,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3550,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,10 +3843,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1821900</v>
+        <v>491250</v>
       </c>
       <c r="C16" s="3">
-        <v>1358.5</v>
+        <v>1337.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,10 +3854,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>491250</v>
+        <v>629850</v>
       </c>
       <c r="C17" s="3">
-        <v>1337.5</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,10 +3865,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>629850</v>
+        <v>447750</v>
       </c>
       <c r="C18" s="3">
-        <v>1621</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,10 +3876,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>447750</v>
+        <v>544175</v>
       </c>
       <c r="C19" s="3">
-        <v>466</v>
+        <v>2264.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3777,10 +3887,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>544175</v>
+        <v>742400</v>
       </c>
       <c r="C20" s="3">
-        <v>2264.5</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,10 +3898,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>742400</v>
+        <v>552050</v>
       </c>
       <c r="C21" s="3">
-        <v>836</v>
+        <v>2641.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3799,10 +3909,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>552050</v>
+        <v>486930</v>
       </c>
       <c r="C22" s="3">
-        <v>2641.5</v>
+        <v>5890.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3810,10 +3920,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>1673790</v>
+        <v>501300</v>
       </c>
       <c r="C23" s="3">
-        <v>4869.5</v>
+        <v>2031.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3821,10 +3931,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>486930</v>
+        <v>509850</v>
       </c>
       <c r="C24" s="3">
-        <v>5890.5</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3832,10 +3942,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>501300</v>
+        <v>689616.66666666663</v>
       </c>
       <c r="C25" s="3">
-        <v>2031.5</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3843,10 +3953,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>509850</v>
+        <v>548750</v>
       </c>
       <c r="C26" s="3">
-        <v>1017</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3854,10 +3964,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>689616.66666666663</v>
+        <v>380180</v>
       </c>
       <c r="C27" s="3">
-        <v>2093</v>
+        <v>17098</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3865,10 +3975,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>548750</v>
+        <v>792550</v>
       </c>
       <c r="C28" s="3">
-        <v>1394</v>
+        <v>1497.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3876,10 +3986,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>380180</v>
+        <v>367250</v>
       </c>
       <c r="C29" s="3">
-        <v>17098</v>
+        <v>2011.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3887,10 +3997,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="2">
-        <v>792550</v>
+        <v>554450</v>
       </c>
       <c r="C30" s="3">
-        <v>1497.5</v>
+        <v>3734.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3898,10 +4008,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>367250</v>
+        <v>843950</v>
       </c>
       <c r="C31" s="3">
-        <v>2011.5</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,10 +4019,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>554450</v>
+        <v>430750</v>
       </c>
       <c r="C32" s="3">
-        <v>3734.5</v>
+        <v>6008.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3920,31 +4030,9 @@
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>843950</v>
+        <v>591300</v>
       </c>
       <c r="C33" s="3">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2">
-        <v>430750</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6008.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2">
-        <v>591300</v>
-      </c>
-      <c r="C35" s="3">
         <v>2062.5</v>
       </c>
     </row>
@@ -3953,4 +4041,242 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFADC5E-9929-4417-9E89-22053F4EE27B}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.3426275345322467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1173936274196459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8.7973415000300773E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>117409.6382087177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>55005512805.519165</v>
+      </c>
+      <c r="D12" s="4">
+        <v>55005512805.519165</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.9902372473168897</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.4903350902811496E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>413550694329.05957</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13785023144.301985</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>468556207134.57874</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4">
+        <v>584954.88707976579</v>
+      </c>
+      <c r="C17" s="4">
+        <v>28309.523477886712</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20.662830567836611</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.7058886829426122E-19</v>
+      </c>
+      <c r="F17" s="4">
+        <v>527139.12702986458</v>
+      </c>
+      <c r="G17" s="4">
+        <v>642770.64712966699</v>
+      </c>
+      <c r="H17" s="4">
+        <v>527139.12702986458</v>
+      </c>
+      <c r="I17" s="4">
+        <v>642770.64712966699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-9.1422342207656531</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4.5767056781587723</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-1.9975578207693732</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.4903350902811829E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-18.489114167866791</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.20464572633548528</v>
+      </c>
+      <c r="H18" s="5">
+        <v>-18.489114167866791</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.20464572633548528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>